--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2833.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2833.xlsx
@@ -354,7 +354,7 @@
         <v>2.440156465413155</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.361310316128785</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2833.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2833.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172549473779451</v>
+        <v>1.147441625595093</v>
       </c>
       <c r="B1">
-        <v>2.440156465413155</v>
+        <v>2.402315139770508</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.151350975036621</v>
       </c>
       <c r="D1">
-        <v>2.361310316128785</v>
+        <v>2.213490962982178</v>
       </c>
       <c r="E1">
-        <v>1.237321880601132</v>
+        <v>1.24798309803009</v>
       </c>
     </row>
   </sheetData>
